--- a/icd_files/74733.xlsx
+++ b/icd_files/74733.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA12F031-0FB1-4546-B7AE-34AF6E530A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E733891-5C8A-42E4-8F63-3B2128CB01BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="284">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -420,6 +420,9 @@
     <t>11-28</t>
   </si>
   <si>
+    <t>11-29</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -432,10 +435,52 @@
     <t>Insulin</t>
   </si>
   <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>Lisinopril</t>
+  </si>
+  <si>
     <t>Magnesium Sulfate</t>
   </si>
   <si>
-    <t>Metoprolol Tartrate</t>
+    <t>Warfarin</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Albuterol 0.083% Neb Soln</t>
+  </si>
+  <si>
+    <t>Verapamil SR</t>
+  </si>
+  <si>
+    <t>Dextrose 50%</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>Pravastatin</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide Neb</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Hydrocortisone (Rectal) 2.5% Cream</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
   </si>
   <si>
     <t>00:00</t>
@@ -444,9 +489,30 @@
     <t>0 VIAL</t>
   </si>
   <si>
+    <t>2.5 TAB</t>
+  </si>
+  <si>
     <t>4 BAG</t>
   </si>
   <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>240 TAB</t>
+  </si>
+  <si>
+    <t>12.5 SYR</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>80 TAB</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
     <t>19:05</t>
   </si>
   <si>
@@ -456,9 +522,27 @@
     <t>Obeys Commands</t>
   </si>
   <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
     <t>2 BAG</t>
   </si>
   <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
+    <t>2-4 BAG</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>1 BAG</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -508,6 +592,15 @@
   </si>
   <si>
     <t>08:41</t>
+  </si>
+  <si>
+    <t>35 VIAL</t>
+  </si>
+  <si>
+    <t>3.75 TAB</t>
+  </si>
+  <si>
+    <t>100 BAG</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3470,7 +3563,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000000-101C-406E-84F2-67910DD32640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4123,7 +4216,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000001-101C-406E-84F2-67910DD32640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4776,7 +4869,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000002-101C-406E-84F2-67910DD32640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5513,7 +5606,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000003-101C-406E-84F2-67910DD32640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6247,7 +6340,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000004-101C-406E-84F2-67910DD32640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6720,7 +6813,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000005-101C-406E-84F2-67910DD32640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7158,7 +7251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000006-101C-406E-84F2-67910DD32640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7593,7 +7686,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000007-101C-406E-84F2-67910DD32640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8028,7 +8121,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000008-101C-406E-84F2-67910DD32640}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8471,7 +8564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7779193-D574-488B-8163-6475A9926A49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122A5D15-1364-4584-8230-EB598ADDF3FA}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -8496,7 +8589,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -8509,7 +8602,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -8522,7 +8615,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -8535,7 +8628,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -8548,27 +8641,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -8596,7 +8689,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -8624,11 +8717,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -8651,7 +8744,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8688,7 +8781,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -8711,14 +8804,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -8741,14 +8834,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -8771,14 +8864,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -8801,14 +8894,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -8831,16 +8924,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -8863,14 +8956,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -8893,10 +8986,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -8904,7 +8997,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -8916,7 +9009,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -8939,7 +9032,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -8955,11 +9048,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -8982,7 +9075,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -9000,7 +9093,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -9023,7 +9116,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -9042,7 +9135,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -9065,10 +9158,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -9086,7 +9179,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -9109,52 +9202,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -9177,53 +9270,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -9246,43 +9339,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -9290,7 +9383,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -9313,43 +9406,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -9357,7 +9450,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -9380,43 +9473,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -9424,7 +9517,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -9447,43 +9540,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -9491,7 +9584,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -9514,43 +9607,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -9558,7 +9651,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -9581,43 +9674,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -9625,7 +9718,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -9648,43 +9741,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -9692,7 +9785,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -9715,43 +9808,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -9759,7 +9852,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -9782,43 +9875,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -9826,7 +9919,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -9849,43 +9942,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -9893,7 +9986,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -9916,43 +10009,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -9960,7 +10053,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -9983,7 +10076,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -9996,10 +10089,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -10007,7 +10100,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -10030,14 +10123,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -10052,7 +10145,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -10075,7 +10168,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -10095,7 +10188,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -10118,7 +10211,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -10138,7 +10231,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -10161,7 +10254,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -10179,11 +10272,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -10206,14 +10299,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -10236,14 +10329,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -10266,14 +10359,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -10296,14 +10389,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -10326,14 +10419,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -10356,14 +10449,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -10386,10 +10479,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -10406,7 +10499,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -10429,7 +10522,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -10447,7 +10540,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -10470,7 +10563,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -10488,7 +10581,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -10511,14 +10604,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -10541,14 +10634,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -10571,24 +10664,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -10611,7 +10704,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -10620,7 +10713,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -10643,14 +10736,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -10658,7 +10751,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -10681,7 +10774,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -10690,7 +10783,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -10713,14 +10806,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -10728,7 +10821,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -10751,7 +10844,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -10760,7 +10853,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -10783,24 +10876,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -10823,7 +10916,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -10832,7 +10925,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -10855,22 +10948,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -10878,7 +10971,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -10901,7 +10994,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -10914,7 +11007,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -10937,32 +11030,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -10985,7 +11078,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -10994,7 +11087,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -11017,14 +11110,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -11032,7 +11125,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -11055,14 +11148,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -11085,12 +11178,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -11118,7 +11211,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -11145,13 +11238,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -11179,7 +11272,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -11291,7 +11384,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -11319,7 +11412,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -11347,7 +11440,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -13975,13 +14068,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:AA38"/>
+  <dimension ref="A30:AN52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -13989,7 +14082,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>126</v>
       </c>
@@ -14015,333 +14108,814 @@
         <v>127</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="V31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="Y31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="AB31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="AC31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="AG31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AL31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM31" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AN31" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" t="s">
+        <v>153</v>
+      </c>
+      <c r="K32" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" t="s">
+        <v>153</v>
+      </c>
+      <c r="M32" t="s">
+        <v>153</v>
+      </c>
+      <c r="N32" t="s">
+        <v>153</v>
+      </c>
+      <c r="O32" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>174</v>
+      </c>
+      <c r="R32" t="s">
+        <v>175</v>
+      </c>
+      <c r="S32" t="s">
+        <v>176</v>
+      </c>
+      <c r="T32" t="s">
+        <v>153</v>
+      </c>
+      <c r="U32" t="s">
+        <v>173</v>
+      </c>
+      <c r="V32" t="s">
+        <v>177</v>
+      </c>
+      <c r="W32" t="s">
+        <v>178</v>
+      </c>
+      <c r="X32" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" t="s">
+        <v>164</v>
+      </c>
+      <c r="L33" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33" t="s">
+        <v>164</v>
+      </c>
+      <c r="N33" t="s">
+        <v>164</v>
+      </c>
+      <c r="O33" t="s">
+        <v>164</v>
+      </c>
+      <c r="P33" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>164</v>
+      </c>
+      <c r="R33" t="s">
+        <v>164</v>
+      </c>
+      <c r="S33" t="s">
+        <v>164</v>
+      </c>
+      <c r="T33" t="s">
+        <v>164</v>
+      </c>
+      <c r="U33" t="s">
+        <v>164</v>
+      </c>
+      <c r="V33" t="s">
+        <v>164</v>
+      </c>
+      <c r="W33" t="s">
+        <v>164</v>
+      </c>
+      <c r="X33" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" t="s">
+        <v>165</v>
+      </c>
+      <c r="I34" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34" t="s">
+        <v>165</v>
+      </c>
+      <c r="K34" t="s">
+        <v>165</v>
+      </c>
+      <c r="L34" t="s">
+        <v>165</v>
+      </c>
+      <c r="M34" t="s">
+        <v>165</v>
+      </c>
+      <c r="N34" t="s">
+        <v>165</v>
+      </c>
+      <c r="O34" t="s">
+        <v>165</v>
+      </c>
+      <c r="P34" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>165</v>
+      </c>
+      <c r="R34" t="s">
+        <v>165</v>
+      </c>
+      <c r="S34" t="s">
+        <v>165</v>
+      </c>
+      <c r="T34" t="s">
+        <v>165</v>
+      </c>
+      <c r="U34" t="s">
+        <v>165</v>
+      </c>
+      <c r="V34" t="s">
+        <v>165</v>
+      </c>
+      <c r="W34" t="s">
+        <v>165</v>
+      </c>
+      <c r="X34" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" t="s">
+        <v>171</v>
+      </c>
+      <c r="J36" t="s">
+        <v>154</v>
+      </c>
+      <c r="K36" t="s">
+        <v>154</v>
+      </c>
+      <c r="L36" t="s">
+        <v>166</v>
+      </c>
+      <c r="M36" t="s">
+        <v>166</v>
+      </c>
+      <c r="N36" t="s">
+        <v>154</v>
+      </c>
+      <c r="O36" t="s">
+        <v>171</v>
+      </c>
+      <c r="T36" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" t="s">
+        <v>167</v>
+      </c>
+      <c r="K39" t="s">
+        <v>167</v>
+      </c>
+      <c r="L39" t="s">
+        <v>156</v>
+      </c>
+      <c r="M39" t="s">
+        <v>156</v>
+      </c>
+      <c r="N39" t="s">
+        <v>156</v>
+      </c>
+      <c r="O39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" t="s">
+        <v>168</v>
+      </c>
+      <c r="J41" t="s">
+        <v>168</v>
+      </c>
+      <c r="K41" t="s">
+        <v>168</v>
+      </c>
+      <c r="L41" t="s">
+        <v>168</v>
+      </c>
+      <c r="M41" t="s">
+        <v>168</v>
+      </c>
+      <c r="N41" t="s">
+        <v>168</v>
+      </c>
+      <c r="O41" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G32" t="s">
+      <c r="B45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H32" t="s">
+      <c r="B46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I32" t="s">
+      <c r="B47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J32" t="s">
-        <v>138</v>
-      </c>
-      <c r="K32" t="s">
-        <v>145</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="D48" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" t="s">
+        <v>169</v>
+      </c>
+      <c r="H48" t="s">
+        <v>169</v>
+      </c>
+      <c r="I48" t="s">
+        <v>169</v>
+      </c>
+      <c r="J48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K48" t="s">
+        <v>169</v>
+      </c>
+      <c r="L48" t="s">
+        <v>169</v>
+      </c>
+      <c r="M48" t="s">
+        <v>169</v>
+      </c>
+      <c r="N48" t="s">
+        <v>169</v>
+      </c>
+      <c r="O48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M32" t="s">
+      <c r="D49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" t="s">
+        <v>172</v>
+      </c>
+      <c r="H49" t="s">
+        <v>167</v>
+      </c>
+      <c r="I49" t="s">
+        <v>167</v>
+      </c>
+      <c r="J49" t="s">
+        <v>167</v>
+      </c>
+      <c r="K49" t="s">
+        <v>172</v>
+      </c>
+      <c r="L49" t="s">
+        <v>167</v>
+      </c>
+      <c r="M49" t="s">
+        <v>172</v>
+      </c>
+      <c r="N49" t="s">
+        <v>172</v>
+      </c>
+      <c r="O49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N32" t="s">
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H50" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" t="s">
+        <v>170</v>
+      </c>
+      <c r="J50" t="s">
+        <v>170</v>
+      </c>
+      <c r="K50" t="s">
+        <v>170</v>
+      </c>
+      <c r="L50" t="s">
+        <v>170</v>
+      </c>
+      <c r="M50" t="s">
+        <v>170</v>
+      </c>
+      <c r="N50" t="s">
+        <v>170</v>
+      </c>
+      <c r="O50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O32" t="s">
-        <v>148</v>
-      </c>
-      <c r="P32" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>138</v>
-      </c>
-      <c r="R32" t="s">
-        <v>153</v>
-      </c>
-      <c r="S32" t="s">
-        <v>154</v>
-      </c>
-      <c r="T32" t="s">
-        <v>155</v>
-      </c>
-      <c r="U32" t="s">
-        <v>156</v>
-      </c>
-      <c r="V32" t="s">
-        <v>157</v>
-      </c>
-      <c r="W32" t="s">
-        <v>148</v>
-      </c>
-      <c r="X32" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" t="s">
-        <v>142</v>
-      </c>
-      <c r="H33" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" t="s">
-        <v>142</v>
-      </c>
-      <c r="J33" t="s">
-        <v>142</v>
-      </c>
-      <c r="K33" t="s">
-        <v>142</v>
-      </c>
-      <c r="L33" t="s">
-        <v>142</v>
-      </c>
-      <c r="M33" t="s">
-        <v>142</v>
-      </c>
-      <c r="N33" t="s">
-        <v>142</v>
-      </c>
-      <c r="O33" t="s">
-        <v>142</v>
-      </c>
-      <c r="R33" t="s">
-        <v>142</v>
-      </c>
-      <c r="S33" t="s">
-        <v>142</v>
-      </c>
-      <c r="T33" t="s">
-        <v>142</v>
-      </c>
-      <c r="U33" t="s">
-        <v>142</v>
-      </c>
-      <c r="V33" t="s">
-        <v>142</v>
-      </c>
-      <c r="W33" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" t="s">
-        <v>143</v>
-      </c>
-      <c r="J34" t="s">
-        <v>143</v>
-      </c>
-      <c r="K34" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N34" t="s">
-        <v>143</v>
-      </c>
-      <c r="O34" t="s">
-        <v>143</v>
-      </c>
-      <c r="R34" t="s">
-        <v>143</v>
-      </c>
-      <c r="S34" t="s">
-        <v>143</v>
-      </c>
-      <c r="T34" t="s">
-        <v>143</v>
-      </c>
-      <c r="U34" t="s">
-        <v>143</v>
-      </c>
-      <c r="V34" t="s">
-        <v>143</v>
-      </c>
-      <c r="W34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" t="s">
-        <v>139</v>
-      </c>
-      <c r="J36" t="s">
-        <v>139</v>
-      </c>
-      <c r="X36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q38" t="s">
-        <v>152</v>
-      </c>
-      <c r="X38" t="s">
-        <v>159</v>
+      <c r="B52" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/74733.xlsx
+++ b/icd_files/74733.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA12F031-0FB1-4546-B7AE-34AF6E530A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA72326-EBBA-48F2-91B0-8599ED43E4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="284">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -420,6 +420,9 @@
     <t>11-28</t>
   </si>
   <si>
+    <t>11-29</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -432,10 +435,52 @@
     <t>Insulin</t>
   </si>
   <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>Lisinopril</t>
+  </si>
+  <si>
     <t>Magnesium Sulfate</t>
   </si>
   <si>
-    <t>Metoprolol Tartrate</t>
+    <t>Warfarin</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Albuterol 0.083% Neb Soln</t>
+  </si>
+  <si>
+    <t>Verapamil SR</t>
+  </si>
+  <si>
+    <t>Dextrose 50%</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>Pravastatin</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide Neb</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Hydrocortisone (Rectal) 2.5% Cream</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
   </si>
   <si>
     <t>00:00</t>
@@ -444,9 +489,30 @@
     <t>0 VIAL</t>
   </si>
   <si>
+    <t>2.5 TAB</t>
+  </si>
+  <si>
     <t>4 BAG</t>
   </si>
   <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>240 TAB</t>
+  </si>
+  <si>
+    <t>12.5 SYR</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>80 TAB</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
     <t>19:05</t>
   </si>
   <si>
@@ -456,9 +522,27 @@
     <t>Obeys Commands</t>
   </si>
   <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
     <t>2 BAG</t>
   </si>
   <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
+    <t>2-4 BAG</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>1 BAG</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -508,6 +592,15 @@
   </si>
   <si>
     <t>08:41</t>
+  </si>
+  <si>
+    <t>35 VIAL</t>
+  </si>
+  <si>
+    <t>3.75 TAB</t>
+  </si>
+  <si>
+    <t>100 BAG</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3470,7 +3563,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000000-F7EB-4F9E-9210-29008B6AED85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4123,7 +4216,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000001-F7EB-4F9E-9210-29008B6AED85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4776,7 +4869,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000002-F7EB-4F9E-9210-29008B6AED85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5513,7 +5606,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000003-F7EB-4F9E-9210-29008B6AED85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6247,7 +6340,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000004-F7EB-4F9E-9210-29008B6AED85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6720,7 +6813,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000005-F7EB-4F9E-9210-29008B6AED85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7158,7 +7251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000006-F7EB-4F9E-9210-29008B6AED85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7593,7 +7686,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000007-F7EB-4F9E-9210-29008B6AED85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8028,7 +8121,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-FEF0-428C-8C17-AD137BF7B92A}"/>
+              <c16:uniqueId val="{00000008-F7EB-4F9E-9210-29008B6AED85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8471,7 +8564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7779193-D574-488B-8163-6475A9926A49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0292AEA4-8C37-40D1-B4C1-2AD601886EF6}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -8496,7 +8589,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -8509,7 +8602,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -8522,7 +8615,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -8535,7 +8628,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -8548,27 +8641,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -8596,7 +8689,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -8624,11 +8717,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -8651,7 +8744,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8688,7 +8781,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -8711,14 +8804,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -8741,14 +8834,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -8771,14 +8864,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -8801,14 +8894,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -8831,16 +8924,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -8863,14 +8956,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -8893,10 +8986,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -8904,7 +8997,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -8916,7 +9009,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -8939,7 +9032,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -8955,11 +9048,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -8982,7 +9075,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -9000,7 +9093,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -9023,7 +9116,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -9042,7 +9135,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -9065,10 +9158,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -9086,7 +9179,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -9109,52 +9202,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -9177,53 +9270,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -9246,43 +9339,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -9290,7 +9383,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -9313,43 +9406,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -9357,7 +9450,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -9380,43 +9473,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -9424,7 +9517,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -9447,43 +9540,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -9491,7 +9584,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -9514,43 +9607,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -9558,7 +9651,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -9581,43 +9674,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -9625,7 +9718,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -9648,43 +9741,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -9692,7 +9785,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -9715,43 +9808,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -9759,7 +9852,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -9782,43 +9875,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -9826,7 +9919,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -9849,43 +9942,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -9893,7 +9986,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -9916,43 +10009,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -9960,7 +10053,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -9983,7 +10076,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -9996,10 +10089,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -10007,7 +10100,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -10030,14 +10123,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -10052,7 +10145,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -10075,7 +10168,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -10095,7 +10188,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -10118,7 +10211,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -10138,7 +10231,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -10161,7 +10254,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -10179,11 +10272,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -10206,14 +10299,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -10236,14 +10329,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -10266,14 +10359,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -10296,14 +10389,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -10326,14 +10419,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -10356,14 +10449,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -10386,10 +10479,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -10406,7 +10499,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -10429,7 +10522,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -10447,7 +10540,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -10470,7 +10563,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -10488,7 +10581,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -10511,14 +10604,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -10541,14 +10634,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -10571,24 +10664,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -10611,7 +10704,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -10620,7 +10713,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -10643,14 +10736,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -10658,7 +10751,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -10681,7 +10774,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -10690,7 +10783,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -10713,14 +10806,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -10728,7 +10821,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -10751,7 +10844,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -10760,7 +10853,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -10783,24 +10876,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -10823,7 +10916,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -10832,7 +10925,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -10855,22 +10948,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -10878,7 +10971,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -10901,7 +10994,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -10914,7 +11007,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -10937,32 +11030,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -10985,7 +11078,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -10994,7 +11087,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -11017,14 +11110,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -11032,7 +11125,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -11055,14 +11148,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -11085,12 +11178,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -11118,7 +11211,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -11145,13 +11238,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -11179,7 +11272,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -11291,7 +11384,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -11319,7 +11412,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -11347,7 +11440,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -13975,13 +14068,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:AA38"/>
+  <dimension ref="A30:AN52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -13989,7 +14082,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>126</v>
       </c>
@@ -14015,333 +14108,814 @@
         <v>127</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="V31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="Y31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="AB31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="AC31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="AG31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AL31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM31" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AN31" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" t="s">
+        <v>153</v>
+      </c>
+      <c r="K32" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" t="s">
+        <v>153</v>
+      </c>
+      <c r="M32" t="s">
+        <v>153</v>
+      </c>
+      <c r="N32" t="s">
+        <v>153</v>
+      </c>
+      <c r="O32" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>174</v>
+      </c>
+      <c r="R32" t="s">
+        <v>175</v>
+      </c>
+      <c r="S32" t="s">
+        <v>176</v>
+      </c>
+      <c r="T32" t="s">
+        <v>153</v>
+      </c>
+      <c r="U32" t="s">
+        <v>173</v>
+      </c>
+      <c r="V32" t="s">
+        <v>177</v>
+      </c>
+      <c r="W32" t="s">
+        <v>178</v>
+      </c>
+      <c r="X32" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" t="s">
+        <v>164</v>
+      </c>
+      <c r="L33" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33" t="s">
+        <v>164</v>
+      </c>
+      <c r="N33" t="s">
+        <v>164</v>
+      </c>
+      <c r="O33" t="s">
+        <v>164</v>
+      </c>
+      <c r="P33" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>164</v>
+      </c>
+      <c r="R33" t="s">
+        <v>164</v>
+      </c>
+      <c r="S33" t="s">
+        <v>164</v>
+      </c>
+      <c r="T33" t="s">
+        <v>164</v>
+      </c>
+      <c r="U33" t="s">
+        <v>164</v>
+      </c>
+      <c r="V33" t="s">
+        <v>164</v>
+      </c>
+      <c r="W33" t="s">
+        <v>164</v>
+      </c>
+      <c r="X33" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" t="s">
+        <v>165</v>
+      </c>
+      <c r="I34" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34" t="s">
+        <v>165</v>
+      </c>
+      <c r="K34" t="s">
+        <v>165</v>
+      </c>
+      <c r="L34" t="s">
+        <v>165</v>
+      </c>
+      <c r="M34" t="s">
+        <v>165</v>
+      </c>
+      <c r="N34" t="s">
+        <v>165</v>
+      </c>
+      <c r="O34" t="s">
+        <v>165</v>
+      </c>
+      <c r="P34" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>165</v>
+      </c>
+      <c r="R34" t="s">
+        <v>165</v>
+      </c>
+      <c r="S34" t="s">
+        <v>165</v>
+      </c>
+      <c r="T34" t="s">
+        <v>165</v>
+      </c>
+      <c r="U34" t="s">
+        <v>165</v>
+      </c>
+      <c r="V34" t="s">
+        <v>165</v>
+      </c>
+      <c r="W34" t="s">
+        <v>165</v>
+      </c>
+      <c r="X34" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" t="s">
+        <v>171</v>
+      </c>
+      <c r="J36" t="s">
+        <v>154</v>
+      </c>
+      <c r="K36" t="s">
+        <v>154</v>
+      </c>
+      <c r="L36" t="s">
+        <v>166</v>
+      </c>
+      <c r="M36" t="s">
+        <v>166</v>
+      </c>
+      <c r="N36" t="s">
+        <v>154</v>
+      </c>
+      <c r="O36" t="s">
+        <v>171</v>
+      </c>
+      <c r="T36" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" t="s">
+        <v>167</v>
+      </c>
+      <c r="K39" t="s">
+        <v>167</v>
+      </c>
+      <c r="L39" t="s">
+        <v>156</v>
+      </c>
+      <c r="M39" t="s">
+        <v>156</v>
+      </c>
+      <c r="N39" t="s">
+        <v>156</v>
+      </c>
+      <c r="O39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" t="s">
+        <v>168</v>
+      </c>
+      <c r="J41" t="s">
+        <v>168</v>
+      </c>
+      <c r="K41" t="s">
+        <v>168</v>
+      </c>
+      <c r="L41" t="s">
+        <v>168</v>
+      </c>
+      <c r="M41" t="s">
+        <v>168</v>
+      </c>
+      <c r="N41" t="s">
+        <v>168</v>
+      </c>
+      <c r="O41" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G32" t="s">
+      <c r="B45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H32" t="s">
+      <c r="B46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I32" t="s">
+      <c r="B47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J32" t="s">
-        <v>138</v>
-      </c>
-      <c r="K32" t="s">
-        <v>145</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="D48" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" t="s">
+        <v>169</v>
+      </c>
+      <c r="H48" t="s">
+        <v>169</v>
+      </c>
+      <c r="I48" t="s">
+        <v>169</v>
+      </c>
+      <c r="J48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K48" t="s">
+        <v>169</v>
+      </c>
+      <c r="L48" t="s">
+        <v>169</v>
+      </c>
+      <c r="M48" t="s">
+        <v>169</v>
+      </c>
+      <c r="N48" t="s">
+        <v>169</v>
+      </c>
+      <c r="O48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M32" t="s">
+      <c r="D49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" t="s">
+        <v>172</v>
+      </c>
+      <c r="H49" t="s">
+        <v>167</v>
+      </c>
+      <c r="I49" t="s">
+        <v>167</v>
+      </c>
+      <c r="J49" t="s">
+        <v>167</v>
+      </c>
+      <c r="K49" t="s">
+        <v>172</v>
+      </c>
+      <c r="L49" t="s">
+        <v>167</v>
+      </c>
+      <c r="M49" t="s">
+        <v>172</v>
+      </c>
+      <c r="N49" t="s">
+        <v>172</v>
+      </c>
+      <c r="O49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N32" t="s">
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H50" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" t="s">
+        <v>170</v>
+      </c>
+      <c r="J50" t="s">
+        <v>170</v>
+      </c>
+      <c r="K50" t="s">
+        <v>170</v>
+      </c>
+      <c r="L50" t="s">
+        <v>170</v>
+      </c>
+      <c r="M50" t="s">
+        <v>170</v>
+      </c>
+      <c r="N50" t="s">
+        <v>170</v>
+      </c>
+      <c r="O50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O32" t="s">
-        <v>148</v>
-      </c>
-      <c r="P32" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>138</v>
-      </c>
-      <c r="R32" t="s">
-        <v>153</v>
-      </c>
-      <c r="S32" t="s">
-        <v>154</v>
-      </c>
-      <c r="T32" t="s">
-        <v>155</v>
-      </c>
-      <c r="U32" t="s">
-        <v>156</v>
-      </c>
-      <c r="V32" t="s">
-        <v>157</v>
-      </c>
-      <c r="W32" t="s">
-        <v>148</v>
-      </c>
-      <c r="X32" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" t="s">
-        <v>142</v>
-      </c>
-      <c r="H33" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" t="s">
-        <v>142</v>
-      </c>
-      <c r="J33" t="s">
-        <v>142</v>
-      </c>
-      <c r="K33" t="s">
-        <v>142</v>
-      </c>
-      <c r="L33" t="s">
-        <v>142</v>
-      </c>
-      <c r="M33" t="s">
-        <v>142</v>
-      </c>
-      <c r="N33" t="s">
-        <v>142</v>
-      </c>
-      <c r="O33" t="s">
-        <v>142</v>
-      </c>
-      <c r="R33" t="s">
-        <v>142</v>
-      </c>
-      <c r="S33" t="s">
-        <v>142</v>
-      </c>
-      <c r="T33" t="s">
-        <v>142</v>
-      </c>
-      <c r="U33" t="s">
-        <v>142</v>
-      </c>
-      <c r="V33" t="s">
-        <v>142</v>
-      </c>
-      <c r="W33" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" t="s">
-        <v>143</v>
-      </c>
-      <c r="J34" t="s">
-        <v>143</v>
-      </c>
-      <c r="K34" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N34" t="s">
-        <v>143</v>
-      </c>
-      <c r="O34" t="s">
-        <v>143</v>
-      </c>
-      <c r="R34" t="s">
-        <v>143</v>
-      </c>
-      <c r="S34" t="s">
-        <v>143</v>
-      </c>
-      <c r="T34" t="s">
-        <v>143</v>
-      </c>
-      <c r="U34" t="s">
-        <v>143</v>
-      </c>
-      <c r="V34" t="s">
-        <v>143</v>
-      </c>
-      <c r="W34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" t="s">
-        <v>139</v>
-      </c>
-      <c r="J36" t="s">
-        <v>139</v>
-      </c>
-      <c r="X36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q38" t="s">
-        <v>152</v>
-      </c>
-      <c r="X38" t="s">
-        <v>159</v>
+      <c r="B52" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
